--- a/Presupuesto.xlsx
+++ b/Presupuesto.xlsx
@@ -5,17 +5,28 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\utp\tesis1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Rebeca\tesis1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF6A493E-1D07-448B-88D0-02BD20A1FAC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52454829-FB37-4BF3-AC25-41FB5E5DD744}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -156,6 +167,7 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -169,12 +181,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -197,92 +209,46 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -303,7 +269,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -626,10 +592,10 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G17"/>
+      <selection sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
@@ -640,262 +606,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="13">
-        <v>0</v>
-      </c>
-      <c r="G2" s="15">
-        <v>1</v>
-      </c>
-      <c r="H2" s="13">
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
         <f>F2*G2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="2" t="s">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="13">
-        <v>0</v>
-      </c>
-      <c r="G3" s="15">
-        <v>1</v>
-      </c>
-      <c r="H3" s="13">
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
         <f t="shared" ref="H3" si="0">F3*G3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="13">
-        <v>0</v>
-      </c>
-      <c r="G4" s="15">
-        <v>1</v>
-      </c>
-      <c r="H4" s="13">
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
         <f t="shared" ref="H4:H17" si="1">F4*G4</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="13">
-        <v>0</v>
-      </c>
-      <c r="G5" s="15">
-        <v>1</v>
-      </c>
-      <c r="H5" s="13">
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="2" t="s">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="13">
-        <v>0</v>
-      </c>
-      <c r="G6" s="15">
-        <v>1</v>
-      </c>
-      <c r="H6" s="13">
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="13">
-        <v>0</v>
-      </c>
-      <c r="G7" s="15">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="2" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="13">
-        <v>0</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13">
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="2" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="13">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13">
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="2" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="1" t="s">
         <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="13">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="13">
-        <v>0</v>
-      </c>
-      <c r="G11" s="15">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13">
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="2" t="s">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="1" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="15">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -907,129 +873,129 @@
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="5">
         <v>40</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="6">
         <v>4</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="5">
         <f t="shared" si="1"/>
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="5">
         <v>0.05</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="6">
         <v>500</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="5">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="2" t="s">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="5">
         <v>0.05</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="6">
         <v>200</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="5" t="s">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="13">
+      <c r="F16" s="5">
         <v>15</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="6">
         <v>8</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="5">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="5">
         <v>11</v>
       </c>
-      <c r="G17" s="15">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="14">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12">
         <f>SUM(H2:H17)</f>
         <v>326</v>
       </c>
